--- a/trunk/7. Reference/Linh tinh/schedule.xlsx
+++ b/trunk/7. Reference/Linh tinh/schedule.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7605"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Month</t>
   </si>
@@ -35,13 +36,52 @@
   </si>
   <si>
     <t>element detail</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>stage 1</t>
+  </si>
+  <si>
+    <t>stage 2</t>
+  </si>
+  <si>
+    <t>stage 3</t>
+  </si>
+  <si>
+    <t>stage 4</t>
+  </si>
+  <si>
+    <t>stage 5</t>
+  </si>
+  <si>
+    <t>stage 6</t>
+  </si>
+  <si>
+    <t>stage 7</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activites
+ '-
+'-
+'-
+</t>
+  </si>
+  <si>
+    <t>Document
+'-
+'-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +125,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +158,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -144,11 +203,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -168,6 +290,31 @@
     <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,14 +622,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.25">
@@ -1045,4 +1193,297 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="E2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="17">
+        <v>41596</v>
+      </c>
+      <c r="F4" s="17">
+        <f>E4+7</f>
+        <v>41603</v>
+      </c>
+      <c r="G4" s="17">
+        <f>F4+7</f>
+        <v>41610</v>
+      </c>
+      <c r="H4" s="17">
+        <f>G4+7</f>
+        <v>41617</v>
+      </c>
+      <c r="I4" s="17">
+        <f>H4+7</f>
+        <v>41624</v>
+      </c>
+      <c r="J4" s="17">
+        <f>I4+7</f>
+        <v>41631</v>
+      </c>
+      <c r="K4" s="17">
+        <f>J4+7</f>
+        <v>41638</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="15"/>
+      <c r="D10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="15"/>
+      <c r="D12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="15"/>
+      <c r="D16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/7. Reference/Linh tinh/schedule.xlsx
+++ b/trunk/7. Reference/Linh tinh/schedule.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Month</t>
   </si>
@@ -37,51 +36,12 @@
   <si>
     <t>element detail</t>
   </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>stage 1</t>
-  </si>
-  <si>
-    <t>stage 2</t>
-  </si>
-  <si>
-    <t>stage 3</t>
-  </si>
-  <si>
-    <t>stage 4</t>
-  </si>
-  <si>
-    <t>stage 5</t>
-  </si>
-  <si>
-    <t>stage 6</t>
-  </si>
-  <si>
-    <t>stage 7</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activites
- '-
-'-
-'-
-</t>
-  </si>
-  <si>
-    <t>Document
-'-
-'-</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,15 +85,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,20 +111,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,74 +144,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -290,31 +168,6 @@
     <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AF17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -1193,297 +1046,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="E2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="17">
-        <v>41596</v>
-      </c>
-      <c r="F4" s="17">
-        <f>E4+7</f>
-        <v>41603</v>
-      </c>
-      <c r="G4" s="17">
-        <f>F4+7</f>
-        <v>41610</v>
-      </c>
-      <c r="H4" s="17">
-        <f>G4+7</f>
-        <v>41617</v>
-      </c>
-      <c r="I4" s="17">
-        <f>H4+7</f>
-        <v>41624</v>
-      </c>
-      <c r="J4" s="17">
-        <f>I4+7</f>
-        <v>41631</v>
-      </c>
-      <c r="K4" s="17">
-        <f>J4+7</f>
-        <v>41638</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="15"/>
-      <c r="D10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="15"/>
-      <c r="D12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="15"/>
-      <c r="D16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C18" s="15"/>
-      <c r="D18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
-</worksheet>
 </file>